--- a/backend/files/task3.xlsx
+++ b/backend/files/task3.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10414"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="11028"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/serbanples/Desktop/Main/NOKIA/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Denisa/Desktop/NOKIA/backend/files/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{70D3DBE7-FB24-B94F-8B85-7293B022111B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{042C98F6-30C0-1141-8173-4F9C0FE61E57}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="10820" yWindow="6220" windowWidth="19420" windowHeight="10400" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="9380" yWindow="6220" windowWidth="19420" windowHeight="10400" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="54">
   <si>
     <t>Name</t>
   </si>
@@ -175,6 +175,18 @@
   </si>
   <si>
     <t>VM2</t>
+  </si>
+  <si>
+    <t>Denisa</t>
+  </si>
+  <si>
+    <t>CLOUD_SRAN_DENISA</t>
+  </si>
+  <si>
+    <t>192.168.0.110</t>
+  </si>
+  <si>
+    <t>15.20.247.81</t>
   </si>
 </sst>
 </file>
@@ -513,10 +525,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F11"/>
+  <dimension ref="A1:F12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F2" sqref="F2:F11"/>
+      <selection activeCell="G11" sqref="G11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -747,6 +759,23 @@
         <v>0</v>
       </c>
     </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
+        <v>50</v>
+      </c>
+      <c r="B12" t="s">
+        <v>51</v>
+      </c>
+      <c r="C12" t="s">
+        <v>50</v>
+      </c>
+      <c r="D12" t="s">
+        <v>52</v>
+      </c>
+      <c r="E12" t="s">
+        <v>53</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/backend/files/task3.xlsx
+++ b/backend/files/task3.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Denisa/Desktop/NOKIA/backend/files/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{042C98F6-30C0-1141-8173-4F9C0FE61E57}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{84F851DE-3963-7C4B-9046-4A5FFB1AE60B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="9380" yWindow="6220" windowWidth="19420" windowHeight="10400" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="13960" yWindow="2420" windowWidth="19420" windowHeight="10400" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -528,7 +528,7 @@
   <dimension ref="A1:F12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G11" sqref="G11"/>
+      <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>

--- a/backend/files/task3.xlsx
+++ b/backend/files/task3.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="11028"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10414"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Denisa/Desktop/NOKIA/backend/files/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/serbanples/Desktop/Main/NOKIA/backend/files/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{84F851DE-3963-7C4B-9046-4A5FFB1AE60B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5D43CE37-21E4-DF43-BCEF-7686750CFFC1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="13960" yWindow="2420" windowWidth="19420" windowHeight="10400" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="5380" yWindow="1720" windowWidth="19420" windowHeight="10400" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="64">
   <si>
     <t>Name</t>
   </si>
@@ -187,6 +187,36 @@
   </si>
   <si>
     <t>15.20.247.81</t>
+  </si>
+  <si>
+    <t>CLOUD_SRAN_UVT</t>
+  </si>
+  <si>
+    <t>uvt</t>
+  </si>
+  <si>
+    <t>UVT</t>
+  </si>
+  <si>
+    <t>15.20.247.82</t>
+  </si>
+  <si>
+    <t>hotspot</t>
+  </si>
+  <si>
+    <t>CLOUD_SRAN_HOTSPOT</t>
+  </si>
+  <si>
+    <t>HOTSPOT</t>
+  </si>
+  <si>
+    <t>15.20.247.83</t>
+  </si>
+  <si>
+    <t>169.254.245.196</t>
+  </si>
+  <si>
+    <t>192.168.204.218</t>
   </si>
 </sst>
 </file>
@@ -226,13 +256,16 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" applyNumberFormat="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+  <cellXfs count="2">
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" customBuiltin="1"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -525,17 +558,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F12"/>
+  <dimension ref="A1:F14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E10" sqref="E10"/>
+      <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="10.33203125" customWidth="1"/>
     <col min="2" max="2" width="38.5" customWidth="1"/>
-    <col min="3" max="4" width="10.33203125" customWidth="1"/>
+    <col min="3" max="3" width="10.33203125" customWidth="1"/>
+    <col min="4" max="4" width="35.5" customWidth="1"/>
     <col min="5" max="5" width="13.33203125" customWidth="1"/>
   </cols>
   <sheetData>
@@ -575,9 +609,6 @@
       <c r="E2" t="s">
         <v>34</v>
       </c>
-      <c r="F2">
-        <v>0</v>
-      </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
@@ -595,9 +626,6 @@
       <c r="E3" t="s">
         <v>35</v>
       </c>
-      <c r="F3">
-        <v>0</v>
-      </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
@@ -615,9 +643,6 @@
       <c r="E4" t="s">
         <v>36</v>
       </c>
-      <c r="F4">
-        <v>0</v>
-      </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
@@ -635,9 +660,6 @@
       <c r="E5" t="s">
         <v>37</v>
       </c>
-      <c r="F5">
-        <v>0</v>
-      </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
@@ -655,9 +677,6 @@
       <c r="E6" t="s">
         <v>38</v>
       </c>
-      <c r="F6">
-        <v>0</v>
-      </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
@@ -675,9 +694,6 @@
       <c r="E7" t="s">
         <v>39</v>
       </c>
-      <c r="F7">
-        <v>0</v>
-      </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
@@ -695,9 +711,6 @@
       <c r="E8" t="s">
         <v>40</v>
       </c>
-      <c r="F8">
-        <v>0</v>
-      </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
@@ -715,9 +728,6 @@
       <c r="E9" t="s">
         <v>41</v>
       </c>
-      <c r="F9">
-        <v>0</v>
-      </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
@@ -735,9 +745,6 @@
       <c r="E10" t="s">
         <v>42</v>
       </c>
-      <c r="F10">
-        <v>0</v>
-      </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
@@ -755,9 +762,6 @@
       <c r="E11" t="s">
         <v>46</v>
       </c>
-      <c r="F11">
-        <v>0</v>
-      </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
@@ -774,6 +778,40 @@
       </c>
       <c r="E12" t="s">
         <v>53</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A13" t="s">
+        <v>55</v>
+      </c>
+      <c r="B13" t="s">
+        <v>54</v>
+      </c>
+      <c r="C13" t="s">
+        <v>56</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="E13" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A14" t="s">
+        <v>58</v>
+      </c>
+      <c r="B14" t="s">
+        <v>59</v>
+      </c>
+      <c r="C14" t="s">
+        <v>60</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="E14" t="s">
+        <v>61</v>
       </c>
     </row>
   </sheetData>
